--- a/相册数据模板.xlsx
+++ b/相册数据模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10620"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jin/GitHub/projects/pdf-album-factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{720B1B21-B00B-B64C-97E2-37E8047BB53B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B4D1C1-175B-EB4A-8D41-980D52C212F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="-28360" windowWidth="51200" windowHeight="28360" xr2:uid="{AF56D5AF-AC36-6147-A63A-4255A9C2C5FF}"/>
   </bookViews>
@@ -335,534 +335,40 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝猫</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>lan'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鲁镇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的酒店的格局，是和别处不同的：都是当街</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个曲尺形的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>柜台，柜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⾥⾯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>着热</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⽔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，可以随时温酒。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，傍午傍晚散了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，每每花四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⽂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铜钱，买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>酒，这是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼆⼗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多年前的事，现在每碗要涨到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼗⽂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，靠柜外站着，热热的喝了休息；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倘肯多花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼀⽂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，便可以买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碟盐煮笋，或者茴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⾹⾖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，做下酒物了，如果出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼗⼏⽂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，那就能买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>样荤菜，但这些顾客，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多是短</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⾐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>帮，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抵没有这样阔绰。只有穿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⻓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衫的，才踱进店</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⾯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔壁的房</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>⼦⾥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，要酒要菜，慢慢地坐喝。</t>
+      <t>永和九年，岁在癸丑，暮春之初，会于会稽山阴之兰亭，修禊事也。群贤毕至，少长咸集。此地有崇山峻岭，茂林修竹，又有清流激湍，映带左右。引以为流觞曲水，列坐其次。虽无丝竹管弦之盛，一觞一咏，亦足以畅叙幽情。</t>
     </r>
   </si>
   <si>
@@ -874,24 +380,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>蓝猫</t>
+      <t>淘气</t>
     </r>
     <rPh sb="0" eb="2">
-      <t>lan'ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="苹方-简"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右</t>
-    </r>
+      <t>tao'q</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,26 +396,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>永和九年，岁在癸丑，暮春之初，会于会稽山阴之兰亭，修禊事也。群贤毕至，少长咸集。此地有崇山峻岭，茂林修竹，又有清流激湍，映带左右。引以为流觞曲水，列坐其次。虽无丝竹管弦之盛，一觞一咏，亦足以畅叙幽情。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>淘气</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>tao'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>夫人之相与，俯仰一世。或取诸怀抱，悟言一室之内；或因寄所托，放浪形骸之外。虽趣舍万殊，静躁不同，当其欣于所遇，暂得于己，快然自足，不知老之将至。及其所之既倦，情随事迁，感慨系之矣。向之所欣，俯仰之间，已为陈迹，犹不能不以之兴怀。况修短随化，终期于尽。古人云：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -931,7 +415,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>夫人之相与，俯仰一世。或取诸怀抱，悟言一室之内；或因寄所托，放浪形骸之外。虽趣舍万殊，静躁不同，当其欣于所遇，暂得于己，快然自足，不知老之将至。及其所之既倦，情随事迁，感慨系之矣。向之所欣，俯仰之间，已为陈迹，犹不能不以之兴怀。况修短随化，终期于尽。古人云：</t>
+      <t>死生亦大矣！</t>
     </r>
     <r>
       <rPr>
@@ -940,7 +424,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>“</t>
+      <t>”</t>
     </r>
     <r>
       <rPr>
@@ -950,17 +434,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>死生亦大矣！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>”</t>
-    </r>
+      <t>岂不痛哉！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小灰</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>xiao'hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -969,26 +462,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>岂不痛哉！</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小灰</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>xiao'hui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>每览昔人兴感之由，若合一契，未尝不临文嗟悼，不能喻之于怀。固知一死生为虚诞，齐彭殇为妄作。后之视今，亦犹今之视昔，悲夫！故列叙时人，录其所述。虽世殊事异，所以兴怀，其致一也。后之览者，亦将有感于斯文。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#80DEEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鲁镇的酒店的格局，是和别处不同的：都是当街一个曲尺形的大柜台，柜里面预备着热水，可以随时温酒。做工的人，傍午傍晚散了工，每每花四文铜钱，买一碗酒，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>——</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -997,13 +491,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>每览昔人兴感之由，若合一契，未尝不临文嗟悼，不能喻之于怀。固知一死生为虚诞，齐彭殇为妄作。后之视今，亦犹今之视昔，悲夫！故列叙时人，录其所述。虽世殊事异，所以兴怀，其致一也。后之览者，亦将有感于斯文。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#80DEEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>这是二十多年前的事，现在每碗要涨到十文，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靠柜外站着，热热的喝了休息；倘肯多花一文，便可以买一碟盐煮笋，或者茴香豆，做下酒物了，如果出到十几文，那就能买一样荤菜，但这些顾客，多是短衣帮，大抵没有这样阔绰。只有穿长衫的，才踱进店面隔壁的房子里，要酒要菜，慢慢地坐喝。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1080,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,6 +596,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,7 +918,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1491,18 +1002,18 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1526,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -1535,12 +1046,12 @@
         <v>8</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1564,18 +1075,18 @@
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1596,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
@@ -1605,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
